--- a/tests/integration_test_files/cycles_1_old.xlsx
+++ b/tests/integration_test_files/cycles_1_old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EEC4647-6470-C446-92F6-7DB1507723DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE093B7E-59E9-4A42-8514-21300BE76626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45360" yWindow="8080" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="12" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45360" yWindow="8080" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="295">
   <si>
     <t>Epoch</t>
   </si>
@@ -841,18 +841,12 @@
     <t>SPONSOR: A=B</t>
   </si>
   <si>
-    <t>M11: role1=role1</t>
-  </si>
-  <si>
     <t>DRUG</t>
   </si>
   <si>
     <t>FDA: A=B</t>
   </si>
   <si>
-    <t xml:space="preserve"> M11: desig1=desig_1</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 1 Day</t>
   </si>
   <si>
@@ -889,12 +883,6 @@
     <t xml:space="preserve"> Int Label 2</t>
   </si>
   <si>
-    <t>M11: role2=role2</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> M11: desig2=desig_2</t>
-  </si>
-  <si>
     <t>Admin 2</t>
   </si>
   <si>
@@ -938,6 +926,15 @@
   </si>
   <si>
     <t>31 .. 70 years</t>
+  </si>
+  <si>
+    <t>Experimental Intervention</t>
+  </si>
+  <si>
+    <t>IMP</t>
+  </si>
+  <si>
+    <t>NIMP (AxMP)</t>
   </si>
 </sst>
 </file>
@@ -1122,9 +1119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1162,7 +1159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1268,7 +1265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1410,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1798,7 +1795,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154CB4E-EAA7-494D-AF71-EA9F1872735B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -3087,8 +3084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B8A8C5-8212-374D-B54F-B66875B0DFAF}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3188,49 +3185,49 @@
         <v>262</v>
       </c>
       <c r="E2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>263</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="G2" t="s">
         <v>264</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I2" t="s">
         <v>265</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>266</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>267</v>
       </c>
-      <c r="J2" t="s">
+      <c r="L2" t="s">
         <v>268</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>269</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>270</v>
       </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>271</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>272</v>
-      </c>
-      <c r="O2" t="s">
-        <v>273</v>
-      </c>
-      <c r="P2" t="s">
-        <v>274</v>
       </c>
       <c r="Q2" t="s">
         <v>142</v>
       </c>
       <c r="R2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3238,58 +3235,58 @@
         <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D3" t="s">
         <v>262</v>
       </c>
       <c r="E3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="G3" t="s">
+        <v>264</v>
+      </c>
+      <c r="H3" t="s">
+        <v>294</v>
+      </c>
+      <c r="I3" t="s">
+        <v>265</v>
+      </c>
+      <c r="J3" t="s">
+        <v>277</v>
+      </c>
+      <c r="K3" t="s">
+        <v>278</v>
+      </c>
+      <c r="L3" t="s">
         <v>279</v>
       </c>
-      <c r="F3" s="26" t="s">
-        <v>264</v>
-      </c>
-      <c r="G3" t="s">
-        <v>265</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="M3" t="s">
+        <v>269</v>
+      </c>
+      <c r="N3" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" t="s">
+        <v>271</v>
+      </c>
+      <c r="P3" t="s">
         <v>280</v>
-      </c>
-      <c r="I3" t="s">
-        <v>267</v>
-      </c>
-      <c r="J3" t="s">
-        <v>281</v>
-      </c>
-      <c r="K3" t="s">
-        <v>282</v>
-      </c>
-      <c r="L3" t="s">
-        <v>283</v>
-      </c>
-      <c r="M3" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" t="s">
-        <v>272</v>
-      </c>
-      <c r="O3" t="s">
-        <v>273</v>
-      </c>
-      <c r="P3" t="s">
-        <v>284</v>
       </c>
       <c r="Q3" t="s">
         <v>142</v>
       </c>
       <c r="R3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3380,7 +3377,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>230</v>
@@ -3392,13 +3389,13 @@
         <v>241</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>68</v>
@@ -3406,10 +3403,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3423,24 +3420,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>286</v>
+      </c>
+      <c r="B3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G3" t="s">
         <v>290</v>
-      </c>
-      <c r="B3" t="s">
-        <v>291</v>
-      </c>
-      <c r="G3" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/cycles_1_old.xlsx
+++ b/tests/integration_test_files/cycles_1_old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE093B7E-59E9-4A42-8514-21300BE76626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C5C8C-9B98-9942-A9E0-034FF08D66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45360" yWindow="8080" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="6" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="45360" yWindow="8080" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -277,9 +277,6 @@
     <t>Obj Desc</t>
   </si>
   <si>
-    <t>Study Primary Objective</t>
-  </si>
-  <si>
     <t>End Desc</t>
   </si>
   <si>
@@ -935,6 +932,9 @@
   </si>
   <si>
     <t>NIMP (AxMP)</t>
+  </si>
+  <si>
+    <t>Primary Objective</t>
   </si>
 </sst>
 </file>
@@ -1119,9 +1119,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1159,7 +1159,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1265,7 +1265,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1407,7 +1407,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1431,10 +1431,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1442,7 +1442,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1450,7 +1450,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1458,7 +1458,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1471,74 +1471,74 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="24" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="24" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1550,8 +1550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1568,34 +1568,34 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>70</v>
       </c>
       <c r="C1" s="22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D1" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="E1" s="22" t="s">
         <v>71</v>
       </c>
       <c r="F1" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G1" s="22" t="s">
         <v>72</v>
       </c>
       <c r="H1" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="I1" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>239</v>
       </c>
       <c r="K1" s="22" t="s">
         <v>73</v>
@@ -1603,22 +1603,22 @@
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>74</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="I2" s="10" t="s">
+      <c r="K2" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1646,54 +1646,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>78</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>79</v>
       </c>
       <c r="C1" s="14" t="s">
         <v>67</v>
       </c>
       <c r="D1" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B2" t="s">
         <v>85</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>86</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>87</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>88</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>89</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>90</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>91</v>
-      </c>
-      <c r="H2" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1722,65 +1722,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="C1" s="18" t="s">
-        <v>206</v>
-      </c>
       <c r="D1" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="18" t="s">
         <v>135</v>
-      </c>
-      <c r="G1" s="18" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
         <v>137</v>
       </c>
-      <c r="B2" t="s">
-        <v>207</v>
-      </c>
-      <c r="C2" t="s">
-        <v>208</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" t="s">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" t="s">
-        <v>210</v>
-      </c>
-      <c r="D3" t="s">
-        <v>138</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" t="s">
         <v>142</v>
-      </c>
-      <c r="G3" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1811,260 +1811,260 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>145</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>146</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>147</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="F1" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="H1" s="22" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>157</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>156</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -2091,70 +2091,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B1" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="22" t="s">
         <v>186</v>
       </c>
-      <c r="C1" s="22" t="s">
-        <v>187</v>
-      </c>
       <c r="D1" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="22" t="s">
         <v>150</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>190</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>198</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2177,18 +2177,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" t="s">
         <v>118</v>
-      </c>
-      <c r="B1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2241,13 +2241,13 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>48</v>
       </c>
       <c r="F2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -2271,10 +2271,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="28"/>
       <c r="D1" s="28"/>
@@ -2282,10 +2282,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="28"/>
       <c r="D2" s="28"/>
@@ -2296,7 +2296,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C3" s="29"/>
       <c r="D3" s="29"/>
@@ -2309,7 +2309,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="30"/>
       <c r="D4" s="30"/>
@@ -2320,7 +2320,7 @@
         <v>51</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C5" s="30"/>
       <c r="D5" s="30"/>
@@ -2331,7 +2331,7 @@
         <v>52</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="28"/>
       <c r="D6" s="28"/>
@@ -2342,7 +2342,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="28"/>
       <c r="D7" s="28"/>
@@ -2353,7 +2353,7 @@
         <v>54</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="28"/>
       <c r="D8" s="28"/>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="28"/>
       <c r="D9" s="28"/>
@@ -2372,7 +2372,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28"/>
@@ -2387,7 +2387,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>55</v>
@@ -2404,13 +2404,13 @@
         <v>57</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D13" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -2418,13 +2418,13 @@
         <v>58</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>192</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -2477,19 +2477,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>219</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>220</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="D1" s="22" t="s">
         <v>222</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="E1" s="22" t="s">
         <v>223</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2497,16 +2497,16 @@
         <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2517,13 +2517,13 @@
         <v>58</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2551,13 +2551,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B1" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="C1" s="22" t="s">
         <v>212</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2565,10 +2565,10 @@
         <v>55</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2576,10 +2576,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2587,10 +2587,10 @@
         <v>56</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -2625,10 +2625,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="C1" s="17" t="s">
         <v>0</v>
@@ -2653,10 +2653,10 @@
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>129</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>3</v>
@@ -2691,10 +2691,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>131</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>28</v>
@@ -2783,7 +2783,7 @@
       </c>
       <c r="J5" s="31"/>
       <c r="K5" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
@@ -2839,47 +2839,47 @@
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
       <c r="C7" s="17" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -2923,7 +2923,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3084,7 +3084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B8A8C5-8212-374D-B54F-B66875B0DFAF}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:H3"/>
     </sheetView>
   </sheetViews>
@@ -3114,179 +3114,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>64</v>
       </c>
       <c r="E1" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F1" s="22" t="s">
         <v>62</v>
       </c>
       <c r="G1" s="22" t="s">
+        <v>246</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="I1" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="J1" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="K1" s="22" t="s">
         <v>250</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="L1" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="M1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="N1" s="22" t="s">
         <v>253</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="O1" s="22" t="s">
         <v>254</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="P1" s="22" t="s">
         <v>255</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="Q1" s="22" t="s">
         <v>256</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="R1" s="22" t="s">
         <v>257</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="S1" s="22" t="s">
         <v>258</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" t="s">
         <v>260</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>261</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>262</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H2" t="s">
         <v>292</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>264</v>
       </c>
-      <c r="H2" t="s">
-        <v>293</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>265</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>266</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>267</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>268</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>269</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>270</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>271</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>141</v>
+      </c>
+      <c r="R2" t="s">
         <v>272</v>
       </c>
-      <c r="Q2" t="s">
-        <v>142</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="S2" s="27" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C3" t="s">
         <v>275</v>
       </c>
-      <c r="C3" t="s">
-        <v>276</v>
-      </c>
       <c r="D3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E3" t="s">
         <v>58</v>
       </c>
       <c r="F3" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="G3" t="s">
         <v>263</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>293</v>
+      </c>
+      <c r="I3" t="s">
         <v>264</v>
       </c>
-      <c r="H3" t="s">
-        <v>294</v>
-      </c>
-      <c r="I3" t="s">
-        <v>265</v>
-      </c>
       <c r="J3" t="s">
+        <v>276</v>
+      </c>
+      <c r="K3" t="s">
         <v>277</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>278</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>268</v>
+      </c>
+      <c r="N3" t="s">
+        <v>269</v>
+      </c>
+      <c r="O3" t="s">
+        <v>270</v>
+      </c>
+      <c r="P3" t="s">
         <v>279</v>
       </c>
-      <c r="M3" t="s">
-        <v>269</v>
-      </c>
-      <c r="N3" t="s">
-        <v>270</v>
-      </c>
-      <c r="O3" t="s">
-        <v>271</v>
-      </c>
-      <c r="P3" t="s">
-        <v>280</v>
-      </c>
       <c r="Q3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R3" t="s">
+        <v>272</v>
+      </c>
+      <c r="S3" s="27" t="s">
         <v>273</v>
-      </c>
-      <c r="S3" s="27" t="s">
-        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -3311,13 +3311,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B1" s="22" t="s">
         <v>63</v>
       </c>
       <c r="C1" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D1" s="22" t="s">
         <v>64</v>
@@ -3325,13 +3325,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C2" t="s">
         <v>242</v>
-      </c>
-      <c r="C2" t="s">
-        <v>243</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>65</v>
@@ -3339,13 +3339,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C3" t="s">
         <v>244</v>
-      </c>
-      <c r="C3" t="s">
-        <v>245</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>66</v>
@@ -3377,25 +3377,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>63</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E1" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>283</v>
-      </c>
       <c r="G1" s="21" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H1" s="21" t="s">
         <v>68</v>
@@ -3403,10 +3403,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
         <v>284</v>
-      </c>
-      <c r="B2" t="s">
-        <v>285</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -3420,24 +3420,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
         <v>286</v>
       </c>
-      <c r="B3" t="s">
-        <v>287</v>
-      </c>
       <c r="G3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/cycles_1_old.xlsx
+++ b/tests/integration_test_files/cycles_1_old.xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C5C8C-9B98-9942-A9E0-034FF08D66A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9275672-E167-CD4D-AA77-2D921C9C1775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45360" yWindow="8080" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="9" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="960" yWindow="500" windowWidth="49920" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
-    <sheet name="studyIdentifiers" sheetId="3" r:id="rId2"/>
-    <sheet name="studyDesign" sheetId="4" r:id="rId3"/>
-    <sheet name="studyDesignArms" sheetId="14" r:id="rId4"/>
-    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId5"/>
-    <sheet name="mainTimeline" sheetId="1" r:id="rId6"/>
-    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId7"/>
-    <sheet name="studyDesignIndications" sheetId="5" r:id="rId8"/>
-    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId9"/>
-    <sheet name="studyDesignOE" sheetId="7" r:id="rId10"/>
-    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId11"/>
-    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId12"/>
-    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId13"/>
-    <sheet name="studyDesignElements" sheetId="13" r:id="rId14"/>
-    <sheet name="configuration" sheetId="10" r:id="rId15"/>
+    <sheet name="studyOrganizations" sheetId="3" r:id="rId2"/>
+    <sheet name="studyIdentifiers" sheetId="17" r:id="rId3"/>
+    <sheet name="studyDesign" sheetId="4" r:id="rId4"/>
+    <sheet name="studyDesignArms" sheetId="14" r:id="rId5"/>
+    <sheet name="studyDesignEpochs" sheetId="15" r:id="rId6"/>
+    <sheet name="mainTimeline" sheetId="1" r:id="rId7"/>
+    <sheet name="studyDesignInterventions" sheetId="16" r:id="rId8"/>
+    <sheet name="studyDesignIndications" sheetId="5" r:id="rId9"/>
+    <sheet name="studyDesignPopulations" sheetId="6" r:id="rId10"/>
+    <sheet name="studyDesignOE" sheetId="7" r:id="rId11"/>
+    <sheet name="studyDesignEstimands" sheetId="9" r:id="rId12"/>
+    <sheet name="studyDesignProcedures" sheetId="11" r:id="rId13"/>
+    <sheet name="studyDesignEncounters" sheetId="12" r:id="rId14"/>
+    <sheet name="studyDesignElements" sheetId="13" r:id="rId15"/>
+    <sheet name="configuration" sheetId="10" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="296">
   <si>
     <t>Epoch</t>
   </si>
@@ -935,13 +936,16 @@
   </si>
   <si>
     <t>Primary Objective</t>
+  </si>
+  <si>
+    <t>organization</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -953,14 +957,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1019,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1037,11 +1033,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1049,8 +1044,8 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1084,7 +1079,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1418,7 +1413,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1430,15 +1425,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B2" t="s">
@@ -1446,95 +1441,95 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="25" t="s">
+      <c r="B3" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="23" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="24" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="23" t="s">
         <v>106</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1547,10 +1542,99 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF479F8C-1E70-3F42-8111-5149A1D657BC}">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="8.83203125" customWidth="1"/>
+    <col min="2" max="3" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" customWidth="1"/>
+    <col min="6" max="6" width="24.5" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
+      </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
+      <c r="H2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B3" t="s">
+        <v>286</v>
+      </c>
+      <c r="G3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" t="s">
+        <v>290</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -1567,57 +1651,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>234</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1626,7 +1710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62082F24-2285-8041-915D-AB36C0D2CF6F}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1645,28 +1729,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1701,7 +1785,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A63AE636-BC2E-EA44-A618-002BB58724B6}">
   <dimension ref="A1:G5"/>
   <sheetViews>
@@ -1715,31 +1799,31 @@
     <col min="2" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="27.33203125" customWidth="1"/>
-    <col min="6" max="6" width="24" style="20" customWidth="1"/>
+    <col min="6" max="6" width="24" style="19" customWidth="1"/>
     <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="8" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>134</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>135</v>
       </c>
     </row>
@@ -1776,7 +1860,7 @@
       <c r="E3" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="19" t="s">
         <v>141</v>
       </c>
       <c r="G3" t="s">
@@ -1791,7 +1875,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154CB4E-EAA7-494D-AF71-EA9F1872735B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1810,28 +1894,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2068,12 +2152,12 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{020DE536-FA14-3149-8856-3933D89EC48F}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2090,19 +2174,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>186</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>150</v>
       </c>
     </row>
@@ -2162,7 +2246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -2176,7 +2260,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B1" t="s">
@@ -2184,7 +2268,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>117</v>
       </c>
       <c r="B2" t="s">
@@ -2200,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2211,40 +2295,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="23" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>120</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="F2" t="s">
         <v>239</v>
@@ -2256,6 +2340,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CD9A1C2-E133-0547-85C1-5ED1F7ED476D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.5" customWidth="1"/>
+    <col min="2" max="2" width="25.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="23" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G16"/>
   <sheetViews>
@@ -2270,176 +2389,176 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>200</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="A9" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="A10" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2458,7 +2577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4315C35-D7F6-D441-BAA4-83D5A5983A3B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
@@ -2476,19 +2595,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2527,14 +2646,14 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" s="15"/>
+      <c r="E4" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92DCDC2E-1983-374F-887E-CD749D9912B4}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -2550,13 +2669,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2598,7 +2717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{136502A0-3DDE-CC47-9DA7-EB2F3073B24B}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2624,58 +2743,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
       <c r="N1" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="16" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="31">
         <v>1</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32">
+      <c r="F2" s="31"/>
+      <c r="G2" s="31">
         <v>2</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31">
         <v>3</v>
       </c>
-      <c r="J2" s="32"/>
+      <c r="J2" s="31"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2690,30 +2809,30 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="16" t="s">
         <v>129</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32" t="s">
+      <c r="F3" s="31"/>
+      <c r="G3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32" t="s">
+      <c r="H3" s="31"/>
+      <c r="I3" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="32"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2728,26 +2847,26 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="17" t="s">
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32" t="s">
+      <c r="H4" s="31"/>
+      <c r="I4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="32"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2762,26 +2881,26 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="15"/>
-      <c r="B5" s="15"/>
-      <c r="C5" s="17" t="s">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="31"/>
+      <c r="E5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="30"/>
       <c r="K5" s="2" t="s">
         <v>121</v>
       </c>
@@ -2796,9 +2915,9 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="51" x14ac:dyDescent="0.2">
-      <c r="A6" s="15"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="17" t="s">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2836,9 +2955,9 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="17" t="s">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="16" t="s">
         <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2876,9 +2995,9 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="16" t="s">
         <v>166</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -2916,13 +3035,13 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3021,7 +3140,7 @@
       <c r="B12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>59</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -3074,13 +3193,13 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
   </mergeCells>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B8A8C5-8212-374D-B54F-B66875B0DFAF}">
   <dimension ref="A1:S3"/>
   <sheetViews>
@@ -3113,61 +3232,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="21" t="s">
         <v>258</v>
       </c>
     </row>
@@ -3187,7 +3306,7 @@
       <c r="E2" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="25" t="s">
         <v>262</v>
       </c>
       <c r="G2" t="s">
@@ -3226,7 +3345,7 @@
       <c r="R2" t="s">
         <v>272</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="26" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3246,7 +3365,7 @@
       <c r="E3" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="25" t="s">
         <v>262</v>
       </c>
       <c r="G3" t="s">
@@ -3285,7 +3404,7 @@
       <c r="R3" t="s">
         <v>272</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="26" t="s">
         <v>273</v>
       </c>
     </row>
@@ -3294,7 +3413,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDAD8777-8987-924C-9761-6675C8DC06D1}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -3310,16 +3429,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3333,7 +3452,7 @@
       <c r="C2" t="s">
         <v>242</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3347,97 +3466,8 @@
       <c r="C3" t="s">
         <v>244</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>66</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF479F8C-1E70-3F42-8111-5149A1D657BC}">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="3" width="11.1640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>281</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>282</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>120</v>
-      </c>
-      <c r="H2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>285</v>
-      </c>
-      <c r="B3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G3" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B4" t="s">
-        <v>287</v>
-      </c>
-      <c r="G4" t="s">
-        <v>290</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/cycles_1_old.xlsx
+++ b/tests/integration_test_files/cycles_1_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9275672-E167-CD4D-AA77-2D921C9C1775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA49CD7-CFAA-8C4F-B5C6-9618A801F2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="500" windowWidth="49920" windowHeight="27260" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="51800" yWindow="500" windowWidth="49920" windowHeight="27260" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="297">
   <si>
     <t>Epoch</t>
   </si>
@@ -212,9 +212,6 @@
     <t>trialIntentTypes</t>
   </si>
   <si>
-    <t>trialTypes</t>
-  </si>
-  <si>
     <t>interventionModel</t>
   </si>
   <si>
@@ -939,6 +936,12 @@
   </si>
   <si>
     <t>organization</t>
+  </si>
+  <si>
+    <t>trialSubTypes</t>
+  </si>
+  <si>
+    <t>spare</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1018,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1083,12 +1086,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1412,8 +1409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F975A6-8C40-A94B-B707-4567CE298AC4}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1426,10 +1423,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1437,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1445,7 +1442,7 @@
         <v>37</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1453,7 +1450,7 @@
         <v>38</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1461,79 +1458,79 @@
         <v>39</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1562,36 +1559,36 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>239</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="E1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>281</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>282</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" t="s">
         <v>283</v>
-      </c>
-      <c r="B2" t="s">
-        <v>284</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1600,29 +1597,29 @@
         <v>120</v>
       </c>
       <c r="H2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" t="s">
         <v>285</v>
       </c>
-      <c r="B3" t="s">
-        <v>286</v>
-      </c>
       <c r="G3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -1652,57 +1649,57 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>234</v>
-      </c>
-      <c r="D1" s="21" t="s">
+      <c r="F1" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="E1" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="I1" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="K1" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="K1" s="21" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>75</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -1730,54 +1727,54 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>82</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>86</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>87</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>88</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>89</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>90</v>
-      </c>
-      <c r="H2" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1806,65 +1803,65 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>205</v>
-      </c>
       <c r="D1" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" t="s">
         <v>136</v>
       </c>
-      <c r="B2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>137</v>
-      </c>
-      <c r="E2" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" t="s">
         <v>139</v>
       </c>
-      <c r="B3" t="s">
-        <v>208</v>
-      </c>
-      <c r="C3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" t="s">
-        <v>137</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" t="s">
         <v>141</v>
-      </c>
-      <c r="G3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1895,260 +1892,260 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>148</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>156</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>154</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>155</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2175,70 +2172,70 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>186</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>149</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>189</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>197</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>195</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2261,18 +2258,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" t="s">
         <v>117</v>
-      </c>
-      <c r="B1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2284,7 +2281,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2305,13 +2302,13 @@
         <v>42</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>43</v>
       </c>
       <c r="F1" s="23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2328,10 +2325,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2358,7 +2355,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2376,10 +2373,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:E10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2390,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -2401,10 +2398,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -2414,12 +2411,12 @@
       <c r="A3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
     </row>
@@ -2427,30 +2424,30 @@
       <c r="A4" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="27"/>
       <c r="D6" s="27"/>
@@ -2458,10 +2455,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>53</v>
+        <v>295</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
@@ -2469,10 +2466,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
@@ -2480,10 +2477,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2491,7 +2488,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -2499,69 +2496,103 @@
       <c r="E10" s="27"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
+      <c r="A11" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="B12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="27"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="7" t="s">
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
+      <c r="B16" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="B17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="13">
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B3:E3"/>
@@ -2596,53 +2627,53 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>226</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2670,24 +2701,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>210</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>211</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>213</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2695,21 +2726,21 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>215</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -2744,10 +2775,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>125</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>126</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
@@ -2755,27 +2786,27 @@
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
       <c r="N1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>127</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>128</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>3</v>
@@ -2783,18 +2814,18 @@
       <c r="D2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="31">
+      <c r="E2" s="29">
         <v>1</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29">
         <v>2</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2810,10 +2841,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>129</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>130</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>28</v>
@@ -2821,18 +2852,18 @@
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31" t="s">
+      <c r="F3" s="29"/>
+      <c r="G3" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="29"/>
+      <c r="I3" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="31"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
@@ -2855,18 +2886,18 @@
       <c r="D4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31" t="s">
+      <c r="F4" s="29"/>
+      <c r="G4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31" t="s">
+      <c r="H4" s="29"/>
+      <c r="I4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="31"/>
+      <c r="J4" s="29"/>
       <c r="K4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2889,20 +2920,20 @@
       <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="30"/>
+      <c r="E5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="28"/>
       <c r="K5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
@@ -2958,47 +2989,47 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -3042,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3141,7 +3172,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -3233,179 +3264,179 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
-      </c>
       <c r="E1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>257</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C2" t="s">
         <v>259</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>260</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>261</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>262</v>
+      </c>
+      <c r="H2" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>263</v>
       </c>
-      <c r="H2" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>264</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>265</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>266</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>267</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>268</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>269</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>270</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>140</v>
+      </c>
+      <c r="R2" t="s">
         <v>271</v>
       </c>
-      <c r="Q2" t="s">
-        <v>141</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="26" t="s">
         <v>272</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" t="s">
         <v>274</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="G3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I3" t="s">
+        <v>263</v>
+      </c>
+      <c r="J3" t="s">
         <v>275</v>
       </c>
-      <c r="D3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>262</v>
-      </c>
-      <c r="G3" t="s">
-        <v>263</v>
-      </c>
-      <c r="H3" t="s">
-        <v>293</v>
-      </c>
-      <c r="I3" t="s">
-        <v>264</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>276</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>277</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>267</v>
+      </c>
+      <c r="N3" t="s">
+        <v>268</v>
+      </c>
+      <c r="O3" t="s">
+        <v>269</v>
+      </c>
+      <c r="P3" t="s">
         <v>278</v>
       </c>
-      <c r="M3" t="s">
-        <v>268</v>
-      </c>
-      <c r="N3" t="s">
-        <v>269</v>
-      </c>
-      <c r="O3" t="s">
-        <v>270</v>
-      </c>
-      <c r="P3" t="s">
-        <v>279</v>
-      </c>
       <c r="Q3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="R3" t="s">
+        <v>271</v>
+      </c>
+      <c r="S3" s="26" t="s">
         <v>272</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3430,44 +3461,44 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" t="s">
         <v>241</v>
       </c>
-      <c r="C2" t="s">
-        <v>242</v>
-      </c>
       <c r="D2" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C3" t="s">
         <v>243</v>
       </c>
-      <c r="C3" t="s">
-        <v>244</v>
-      </c>
       <c r="D3" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/tests/integration_test_files/cycles_1_old.xlsx
+++ b/tests/integration_test_files/cycles_1_old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm/tests/integration_test_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA49CD7-CFAA-8C4F-B5C6-9618A801F2AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9EF93-3E64-244E-97F1-74507A4007D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51800" yWindow="500" windowWidth="49920" windowHeight="27260" activeTab="3" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="5" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -932,9 +932,6 @@
     <t>NIMP (AxMP)</t>
   </si>
   <si>
-    <t>Primary Objective</t>
-  </si>
-  <si>
     <t>organization</t>
   </si>
   <si>
@@ -942,6 +939,9 @@
   </si>
   <si>
     <t>spare</t>
+  </si>
+  <si>
+    <t>Trial Primary Objective</t>
   </si>
 </sst>
 </file>
@@ -1631,8 +1631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>90</v>
@@ -2355,7 +2355,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2375,7 +2375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B66121-AE3C-4E48-906B-C59A3DAEA708}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E13"/>
     </sheetView>
   </sheetViews>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>114</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>

--- a/tests/integration_test_files/cycles_1_old.xlsx
+++ b/tests/integration_test_files/cycles_1_old.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/github/usdm/tests/integration_test_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB9EF93-3E64-244E-97F1-74507A4007D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E37CBB7-0F27-5640-BDF1-8087917BDF32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" firstSheet="5" activeTab="10" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -410,9 +410,6 @@
     <t>SPONSOR =   12</t>
   </si>
   <si>
-    <t>Study Registry</t>
-  </si>
-  <si>
     <t>Cycle 12</t>
   </si>
   <si>
@@ -942,6 +939,9 @@
   </si>
   <si>
     <t>Trial Primary Objective</t>
+  </si>
+  <si>
+    <t>Clinical Study Registry</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1423,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1434,7 +1434,7 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>98</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1474,7 +1474,7 @@
         <v>99</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="51" x14ac:dyDescent="0.2">
@@ -1482,7 +1482,7 @@
         <v>111</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1559,25 +1559,25 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C1" s="20" t="s">
         <v>62</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>279</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>280</v>
       </c>
-      <c r="F1" s="20" t="s">
-        <v>281</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>67</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
         <v>282</v>
-      </c>
-      <c r="B2" t="s">
-        <v>283</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -1602,24 +1602,24 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B3" t="s">
         <v>284</v>
       </c>
-      <c r="B3" t="s">
-        <v>285</v>
-      </c>
       <c r="G3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -1631,7 +1631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D034D1-007E-EE43-A36B-40FDFE01FACC}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -1655,10 +1655,10 @@
         <v>69</v>
       </c>
       <c r="C1" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="D1" s="21" t="s">
         <v>233</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>234</v>
       </c>
       <c r="E1" s="21" t="s">
         <v>70</v>
@@ -1670,13 +1670,13 @@
         <v>71</v>
       </c>
       <c r="H1" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="I1" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>236</v>
-      </c>
-      <c r="J1" s="21" t="s">
-        <v>237</v>
       </c>
       <c r="K1" s="21" t="s">
         <v>72</v>
@@ -1690,7 +1690,7 @@
         <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>90</v>
@@ -1806,62 +1806,62 @@
         <v>76</v>
       </c>
       <c r="B1" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>204</v>
-      </c>
       <c r="D1" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>133</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" t="s">
         <v>135</v>
       </c>
-      <c r="B2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>136</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" t="s">
         <v>138</v>
       </c>
-      <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="G3" t="s">
         <v>140</v>
-      </c>
-      <c r="G3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1895,257 +1895,257 @@
         <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="F1" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="G1" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="H1" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>155</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="G3" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D5" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D8" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D9" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>162</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2175,67 +2175,67 @@
         <v>76</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="21" t="s">
-        <v>185</v>
-      </c>
       <c r="D1" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E1" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>188</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>196</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2281,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD730DE0-C074-8B4F-8463-AF26984F71A7}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2302,7 +2302,7 @@
         <v>42</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E1" s="23" t="s">
         <v>43</v>
@@ -2325,10 +2325,10 @@
         <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2355,7 +2355,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -2387,10 +2387,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="27"/>
@@ -2398,10 +2398,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -2412,7 +2412,7 @@
         <v>49</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C3" s="27"/>
       <c r="D3" s="27"/>
@@ -2425,7 +2425,7 @@
         <v>50</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C4" s="27"/>
       <c r="D4" s="27"/>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="27" t="s">
         <v>114</v>
@@ -2477,10 +2477,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
@@ -2488,7 +2488,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -2534,7 +2534,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>54</v>
@@ -2551,13 +2551,13 @@
         <v>56</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -2565,13 +2565,13 @@
         <v>57</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -2627,19 +2627,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="D1" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="E1" s="21" t="s">
         <v>221</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -2647,16 +2647,16 @@
         <v>56</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2667,13 +2667,13 @@
         <v>57</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>225</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2701,13 +2701,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="C1" s="21" t="s">
         <v>210</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -2715,10 +2715,10 @@
         <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2726,10 +2726,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>214</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2737,10 +2737,10 @@
         <v>55</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>216</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2775,10 +2775,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>124</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>0</v>
@@ -2803,10 +2803,10 @@
     </row>
     <row r="2" spans="1:14" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>126</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>127</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>3</v>
@@ -2841,10 +2841,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>28</v>
@@ -2933,7 +2933,7 @@
       </c>
       <c r="J5" s="28"/>
       <c r="K5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>22</v>
@@ -2989,47 +2989,47 @@
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="16" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>158</v>
-      </c>
       <c r="G7" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>161</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="16" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>35</v>
@@ -3073,7 +3073,7 @@
         <v>19</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -3264,61 +3264,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>63</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F1" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>244</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="I1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="J1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="K1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="L1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="M1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="N1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="P1" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="Q1" s="21" t="s">
         <v>254</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="R1" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="S1" s="21" t="s">
         <v>256</v>
-      </c>
-      <c r="S1" s="21" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.2">
@@ -3326,58 +3326,58 @@
         <v>89</v>
       </c>
       <c r="B2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C2" t="s">
         <v>258</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>259</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H2" t="s">
         <v>290</v>
       </c>
-      <c r="F2" s="25" t="s">
-        <v>261</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>262</v>
       </c>
-      <c r="H2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>263</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>264</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>265</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>266</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>267</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>268</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>269</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R2" t="s">
         <v>270</v>
       </c>
-      <c r="Q2" t="s">
-        <v>140</v>
-      </c>
-      <c r="R2" t="s">
+      <c r="S2" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="S2" s="26" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -3385,58 +3385,58 @@
         <v>93</v>
       </c>
       <c r="B3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" t="s">
         <v>273</v>
       </c>
-      <c r="C3" t="s">
-        <v>274</v>
-      </c>
       <c r="D3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
         <v>57</v>
       </c>
       <c r="F3" s="25" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" t="s">
         <v>261</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I3" t="s">
         <v>262</v>
       </c>
-      <c r="H3" t="s">
-        <v>292</v>
-      </c>
-      <c r="I3" t="s">
-        <v>263</v>
-      </c>
       <c r="J3" t="s">
+        <v>274</v>
+      </c>
+      <c r="K3" t="s">
         <v>275</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>276</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N3" t="s">
+        <v>267</v>
+      </c>
+      <c r="O3" t="s">
+        <v>268</v>
+      </c>
+      <c r="P3" t="s">
         <v>277</v>
       </c>
-      <c r="M3" t="s">
-        <v>267</v>
-      </c>
-      <c r="N3" t="s">
-        <v>268</v>
-      </c>
-      <c r="O3" t="s">
-        <v>269</v>
-      </c>
-      <c r="P3" t="s">
-        <v>278</v>
-      </c>
       <c r="Q3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="R3" t="s">
+        <v>270</v>
+      </c>
+      <c r="S3" s="26" t="s">
         <v>271</v>
-      </c>
-      <c r="S3" s="26" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -3461,13 +3461,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D1" s="21" t="s">
         <v>63</v>
@@ -3478,10 +3478,10 @@
         <v>91</v>
       </c>
       <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2" t="s">
         <v>240</v>
-      </c>
-      <c r="C2" t="s">
-        <v>241</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>64</v>
@@ -3492,10 +3492,10 @@
         <v>92</v>
       </c>
       <c r="B3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" t="s">
         <v>242</v>
-      </c>
-      <c r="C3" t="s">
-        <v>243</v>
       </c>
       <c r="D3" s="11" t="s">
         <v>65</v>
